--- a/cards.xlsx
+++ b/cards.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mã thẻ</t>
   </si>
@@ -22,40 +22,16 @@
     <t>Ngày kích hoạt</t>
   </si>
   <si>
+    <t>Biển số xe</t>
+  </si>
+  <si>
     <t>Loại thẻ</t>
   </si>
   <si>
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Đỗ Tiến Thăng</t>
-  </si>
-  <si>
-    <t>5/10/2023, 12:18:21 AM</t>
-  </si>
-  <si>
-    <t>Nhân Viên</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Thiện</t>
-  </si>
-  <si>
-    <t>5/10/2023, 12:18:44 AM</t>
-  </si>
-  <si>
-    <t>khách hàng</t>
-  </si>
-  <si>
-    <t>003</t>
+    <t xml:space="preserve"> 163 205 112 48</t>
   </si>
   <si>
     <t>Khách vãng lai</t>
@@ -441,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="2" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,53 +442,22 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
